--- a/gold/excel/delay_summary.xlsx
+++ b/gold/excel/delay_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>delay_category</t>
+          <t>delay_reason</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>supplier_id</t>
+          <t>num_crew</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>num_supplier</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>delay_cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cost_per_minute</t>
         </is>
@@ -473,131 +478,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL6349</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>supplier</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>2260</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL3883</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>710</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL2792</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>650</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL5388</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>on-time</t>
+          <t>delayed</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL1740</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -608,27 +609,24 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL5705</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -639,89 +637,80 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL5421</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>crew</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2200</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL5997</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>delayed</t>
+          <t>on-time</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>930</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL9612</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -732,27 +721,24 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>supplier</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL7598</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -763,21 +749,454 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL7328</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL1832</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>crew</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>25</v>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3660.75</v>
+      </c>
+      <c r="H13" t="n">
+        <v>244.05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL4267</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL4242</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL7466</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>110</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL6133</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>58</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1160</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL1990</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL4876</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>delayed</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>38</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>crew</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8674.748571428572</v>
+      </c>
+      <c r="H19" t="n">
+        <v>228.2828571428572</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL1198</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL5986</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL8299</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL2664</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL5675</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL6575</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL1294</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>on-time</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
